--- a/JO_141003130.xlsx
+++ b/JO_141003130.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="140">
   <si>
     <t>AAT_VOUCHER_NO</t>
   </si>
@@ -241,6 +241,201 @@
   </si>
   <si>
     <t>N-VO01</t>
+  </si>
+  <si>
+    <t>Aun test</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Column13</t>
+  </si>
+  <si>
+    <t>Column14</t>
+  </si>
+  <si>
+    <t>Column15</t>
+  </si>
+  <si>
+    <t>Column16</t>
+  </si>
+  <si>
+    <t>Column17</t>
+  </si>
+  <si>
+    <t>Column18</t>
+  </si>
+  <si>
+    <t>Column19</t>
+  </si>
+  <si>
+    <t>Column20</t>
+  </si>
+  <si>
+    <t>Column21</t>
+  </si>
+  <si>
+    <t>Column22</t>
+  </si>
+  <si>
+    <t>Column23</t>
+  </si>
+  <si>
+    <t>Column24</t>
+  </si>
+  <si>
+    <t>Column25</t>
+  </si>
+  <si>
+    <t>Column26</t>
+  </si>
+  <si>
+    <t>Column27</t>
+  </si>
+  <si>
+    <t>Column28</t>
+  </si>
+  <si>
+    <t>Column29</t>
+  </si>
+  <si>
+    <t>Column30</t>
+  </si>
+  <si>
+    <t>Column31</t>
+  </si>
+  <si>
+    <t>Column32</t>
+  </si>
+  <si>
+    <t>Column33</t>
+  </si>
+  <si>
+    <t>Column34</t>
+  </si>
+  <si>
+    <t>Column35</t>
+  </si>
+  <si>
+    <t>Column36</t>
+  </si>
+  <si>
+    <t>Column37</t>
+  </si>
+  <si>
+    <t>Column38</t>
+  </si>
+  <si>
+    <t>Column39</t>
+  </si>
+  <si>
+    <t>Column40</t>
+  </si>
+  <si>
+    <t>Column41</t>
+  </si>
+  <si>
+    <t>Column42</t>
+  </si>
+  <si>
+    <t>Column43</t>
+  </si>
+  <si>
+    <t>Column44</t>
+  </si>
+  <si>
+    <t>Column45</t>
+  </si>
+  <si>
+    <t>Column46</t>
+  </si>
+  <si>
+    <t>Column47</t>
+  </si>
+  <si>
+    <t>Column48</t>
+  </si>
+  <si>
+    <t>Column49</t>
+  </si>
+  <si>
+    <t>Column50</t>
+  </si>
+  <si>
+    <t>Column51</t>
+  </si>
+  <si>
+    <t>Column52</t>
+  </si>
+  <si>
+    <t>Column53</t>
+  </si>
+  <si>
+    <t>Column54</t>
+  </si>
+  <si>
+    <t>Column55</t>
+  </si>
+  <si>
+    <t>Column56</t>
+  </si>
+  <si>
+    <t>Column57</t>
+  </si>
+  <si>
+    <t>Column58</t>
+  </si>
+  <si>
+    <t>Column59</t>
+  </si>
+  <si>
+    <t>Column60</t>
+  </si>
+  <si>
+    <t>Column61</t>
+  </si>
+  <si>
+    <t>Column62</t>
+  </si>
+  <si>
+    <t>Column63</t>
+  </si>
+  <si>
+    <t>Column64</t>
   </si>
 </sst>
 </file>
@@ -285,7 +480,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ h:mm"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -293,6 +498,80 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BM6" totalsRowShown="0">
+  <autoFilter ref="A1:BM6"/>
+  <tableColumns count="65">
+    <tableColumn id="1" name="Aun test"/>
+    <tableColumn id="2" name="Column1"/>
+    <tableColumn id="3" name="Column2"/>
+    <tableColumn id="4" name="Column3"/>
+    <tableColumn id="5" name="Column4"/>
+    <tableColumn id="6" name="Column5"/>
+    <tableColumn id="7" name="Column6"/>
+    <tableColumn id="8" name="Column7"/>
+    <tableColumn id="9" name="Column8"/>
+    <tableColumn id="10" name="Column9"/>
+    <tableColumn id="11" name="Column10"/>
+    <tableColumn id="12" name="Column11"/>
+    <tableColumn id="13" name="Column12"/>
+    <tableColumn id="14" name="Column13"/>
+    <tableColumn id="15" name="Column14"/>
+    <tableColumn id="16" name="Column15" dataDxfId="2"/>
+    <tableColumn id="17" name="Column16"/>
+    <tableColumn id="18" name="Column17"/>
+    <tableColumn id="19" name="Column18"/>
+    <tableColumn id="20" name="Column19"/>
+    <tableColumn id="21" name="Column20"/>
+    <tableColumn id="22" name="Column21" dataDxfId="1"/>
+    <tableColumn id="23" name="Column22"/>
+    <tableColumn id="24" name="Column23"/>
+    <tableColumn id="25" name="Column24"/>
+    <tableColumn id="26" name="Column25"/>
+    <tableColumn id="27" name="Column26"/>
+    <tableColumn id="28" name="Column27"/>
+    <tableColumn id="29" name="Column28"/>
+    <tableColumn id="30" name="Column29"/>
+    <tableColumn id="31" name="Column30"/>
+    <tableColumn id="32" name="Column31"/>
+    <tableColumn id="33" name="Column32"/>
+    <tableColumn id="34" name="Column33"/>
+    <tableColumn id="35" name="Column34"/>
+    <tableColumn id="36" name="Column35"/>
+    <tableColumn id="37" name="Column36"/>
+    <tableColumn id="38" name="Column37"/>
+    <tableColumn id="39" name="Column38"/>
+    <tableColumn id="40" name="Column39"/>
+    <tableColumn id="41" name="Column40"/>
+    <tableColumn id="42" name="Column41"/>
+    <tableColumn id="43" name="Column42"/>
+    <tableColumn id="44" name="Column43"/>
+    <tableColumn id="45" name="Column44"/>
+    <tableColumn id="46" name="Column45"/>
+    <tableColumn id="47" name="Column46"/>
+    <tableColumn id="48" name="Column47"/>
+    <tableColumn id="49" name="Column48"/>
+    <tableColumn id="50" name="Column49" dataDxfId="0"/>
+    <tableColumn id="51" name="Column50"/>
+    <tableColumn id="52" name="Column51"/>
+    <tableColumn id="53" name="Column52"/>
+    <tableColumn id="54" name="Column53"/>
+    <tableColumn id="55" name="Column54"/>
+    <tableColumn id="56" name="Column55"/>
+    <tableColumn id="57" name="Column56"/>
+    <tableColumn id="58" name="Column57"/>
+    <tableColumn id="59" name="Column58"/>
+    <tableColumn id="60" name="Column59"/>
+    <tableColumn id="61" name="Column60"/>
+    <tableColumn id="62" name="Column61"/>
+    <tableColumn id="63" name="Column62"/>
+    <tableColumn id="64" name="Column63"/>
+    <tableColumn id="65" name="Column64"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM5"/>
+  <dimension ref="A1:BM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A3:A4"/>
+      <selection sqref="A1:BM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,13 +919,13 @@
     <col min="50" max="50" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12" customWidth="1"/>
     <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="7" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12" customWidth="1"/>
     <col min="56" max="56" width="17" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12" customWidth="1"/>
     <col min="60" max="60" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="23.7109375" bestFit="1" customWidth="1"/>
@@ -657,276 +936,396 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="AC1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="AG1" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="AH1" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="AI1" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="AJ1" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="AK1" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="AL1" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="AM1" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AN1" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="AO1" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AP1" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="AQ1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="AR1" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="AS1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="AT1" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="AU1" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="AV1" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="AW1" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="AX1" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="AY1" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="AZ1" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="BB1" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="BC1" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="BD1" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="BE1" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="BF1" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="BG1" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="BH1" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="BI1" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="BJ1" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="BK1" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="BL1" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="BM1" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>141003130</v>
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2">
-        <v>329</v>
-      </c>
-      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>21977245</v>
-      </c>
-      <c r="F2">
-        <v>800</v>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2">
-        <v>329</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>2910</v>
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" s="1">
-        <v>45244.865717592591</v>
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>2910</v>
-      </c>
-      <c r="V2" s="2">
-        <v>45244</v>
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
       </c>
       <c r="W2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>2910</v>
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
       </c>
       <c r="AA2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB2">
-        <v>2023</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>45244.865717592591</v>
+        <v>26</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
@@ -940,16 +1339,16 @@
         <v>329</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>21977246</v>
+        <v>21977245</v>
       </c>
       <c r="F3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -961,10 +1360,10 @@
         <v>329</v>
       </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>2910</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
       <c r="N3" t="s">
         <v>68</v>
@@ -979,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>2910</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
       </c>
       <c r="V3" s="2">
         <v>45244</v>
@@ -1001,9 +1400,6 @@
       </c>
       <c r="AB3">
         <v>2023</v>
-      </c>
-      <c r="AW3">
-        <v>2000008</v>
       </c>
       <c r="AX3" s="1">
         <v>45244.865717592591</v>
@@ -1020,16 +1416,16 @@
         <v>329</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>21977248</v>
+        <v>21977246</v>
       </c>
       <c r="F4">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1041,13 +1437,13 @@
         <v>329</v>
       </c>
       <c r="K4">
-        <v>138.57</v>
+        <v>2910</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P4" s="1">
         <v>45244.865717592591</v>
@@ -1059,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>138.57</v>
+        <v>2910</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1074,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>138.57</v>
+        <v>2910</v>
       </c>
       <c r="AA4" t="s">
         <v>71</v>
@@ -1082,11 +1478,11 @@
       <c r="AB4">
         <v>2023</v>
       </c>
+      <c r="AW4">
+        <v>2000008</v>
+      </c>
       <c r="AX4" s="1">
         <v>45244.865717592591</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
@@ -1100,16 +1496,16 @@
         <v>329</v>
       </c>
       <c r="D5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E5">
-        <v>21977250</v>
+        <v>21977248</v>
       </c>
       <c r="F5">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1121,10 +1517,10 @@
         <v>329</v>
       </c>
       <c r="K5">
+        <v>138.57</v>
+      </c>
+      <c r="L5">
         <v>0</v>
-      </c>
-      <c r="L5">
-        <v>138.57</v>
       </c>
       <c r="N5" t="s">
         <v>73</v>
@@ -1139,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="T5">
+        <v>138.57</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>138.57</v>
       </c>
       <c r="V5" s="2">
         <v>45244</v>
@@ -1150,6 +1546,12 @@
       <c r="W5" t="s">
         <v>70</v>
       </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>138.57</v>
+      </c>
       <c r="AA5" t="s">
         <v>71</v>
       </c>
@@ -1160,11 +1562,88 @@
         <v>45244.865717592591</v>
       </c>
       <c r="BE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>141003130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>329</v>
+      </c>
+      <c r="D6">
+        <v>-2</v>
+      </c>
+      <c r="E6">
+        <v>21977250</v>
+      </c>
+      <c r="F6">
+        <v>805</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6">
+        <v>329</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>138.57</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="1">
+        <v>45244.865717592591</v>
+      </c>
+      <c r="R6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>138.57</v>
+      </c>
+      <c r="V6" s="2">
+        <v>45244</v>
+      </c>
+      <c r="W6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6">
+        <v>2023</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>45244.865717592591</v>
+      </c>
+      <c r="BE6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/JO_141003130.xlsx
+++ b/JO_141003130.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="141">
   <si>
     <t>AAT_VOUCHER_NO</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>Column64</t>
+  </si>
+  <si>
+    <t>ARUNKUMAR TEST</t>
   </si>
 </sst>
 </file>
@@ -501,8 +504,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BM6" totalsRowShown="0">
-  <autoFilter ref="A1:BM6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:BM7" totalsRowShown="0">
   <tableColumns count="65">
     <tableColumn id="1" name="Aun test"/>
     <tableColumn id="2" name="Column1"/>
@@ -861,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM6"/>
+  <dimension ref="A1:BM7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BM6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,473 +938,401 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V1" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="R2" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="S2" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="T2" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="U2" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="V2" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="W2" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="X2" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="Y2" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="Z2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="AB2" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="AC2" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="AD2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="AE2" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="AF2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="AG2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="AH2" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="AI2" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="AJ2" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="AK2" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="AL2" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="AM2" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AN2" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="AO2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AP2" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="AQ2" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="AR2" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="AS2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="AT2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="AU2" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="AV2" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="AW2" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="AX2" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="AY2" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="AZ2" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="BB2" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="BC2" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="BD2" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="BE2" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="BF2" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="BG2" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="BH2" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="BI2" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="BJ2" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="BK2" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="BL2" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="BM2" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>141003130</v>
+      <c r="A3" t="s">
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3">
-        <v>329</v>
-      </c>
-      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>21977245</v>
-      </c>
-      <c r="F3">
-        <v>800</v>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3">
-        <v>329</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>2910</v>
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="1">
-        <v>45244.865717592591</v>
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>2910</v>
-      </c>
-      <c r="V3" s="2">
-        <v>45244</v>
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" t="s">
+        <v>21</v>
       </c>
       <c r="W3" t="s">
-        <v>70</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>2910</v>
+        <v>22</v>
+      </c>
+      <c r="X3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>25</v>
       </c>
       <c r="AA3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB3">
-        <v>2023</v>
-      </c>
-      <c r="AX3" s="1">
-        <v>45244.865717592591</v>
+        <v>26</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
@@ -1416,16 +1346,16 @@
         <v>329</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>21977246</v>
+        <v>21977245</v>
       </c>
       <c r="F4">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1437,10 +1367,10 @@
         <v>329</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>2910</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
       </c>
       <c r="N4" t="s">
         <v>68</v>
@@ -1455,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>2910</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
       </c>
       <c r="V4" s="2">
         <v>45244</v>
@@ -1477,9 +1407,6 @@
       </c>
       <c r="AB4">
         <v>2023</v>
-      </c>
-      <c r="AW4">
-        <v>2000008</v>
       </c>
       <c r="AX4" s="1">
         <v>45244.865717592591</v>
@@ -1496,16 +1423,16 @@
         <v>329</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>21977248</v>
+        <v>21977246</v>
       </c>
       <c r="F5">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1517,13 +1444,13 @@
         <v>329</v>
       </c>
       <c r="K5">
-        <v>138.57</v>
+        <v>2910</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P5" s="1">
         <v>45244.865717592591</v>
@@ -1535,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="T5">
-        <v>138.57</v>
+        <v>2910</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1550,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>138.57</v>
+        <v>2910</v>
       </c>
       <c r="AA5" t="s">
         <v>71</v>
@@ -1558,11 +1485,11 @@
       <c r="AB5">
         <v>2023</v>
       </c>
+      <c r="AW5">
+        <v>2000008</v>
+      </c>
       <c r="AX5" s="1">
         <v>45244.865717592591</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
@@ -1576,16 +1503,16 @@
         <v>329</v>
       </c>
       <c r="D6">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E6">
-        <v>21977250</v>
+        <v>21977248</v>
       </c>
       <c r="F6">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1597,10 +1524,10 @@
         <v>329</v>
       </c>
       <c r="K6">
+        <v>138.57</v>
+      </c>
+      <c r="L6">
         <v>0</v>
-      </c>
-      <c r="L6">
-        <v>138.57</v>
       </c>
       <c r="N6" t="s">
         <v>73</v>
@@ -1615,10 +1542,10 @@
         <v>1</v>
       </c>
       <c r="T6">
+        <v>138.57</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>138.57</v>
       </c>
       <c r="V6" s="2">
         <v>45244</v>
@@ -1626,6 +1553,12 @@
       <c r="W6" t="s">
         <v>70</v>
       </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>138.57</v>
+      </c>
       <c r="AA6" t="s">
         <v>71</v>
       </c>
@@ -1636,6 +1569,80 @@
         <v>45244.865717592591</v>
       </c>
       <c r="BE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>141003130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>329</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <v>21977250</v>
+      </c>
+      <c r="F7">
+        <v>805</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7">
+        <v>329</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>138.57</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="1">
+        <v>45244.865717592591</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>138.57</v>
+      </c>
+      <c r="V7" s="2">
+        <v>45244</v>
+      </c>
+      <c r="W7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB7">
+        <v>2023</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>45244.865717592591</v>
+      </c>
+      <c r="BE7">
         <v>0</v>
       </c>
     </row>

--- a/JO_141003130.xlsx
+++ b/JO_141003130.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="142">
   <si>
     <t>AAT_VOUCHER_NO</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>ARUNKUMAR TEST</t>
+  </si>
+  <si>
+    <t>tests</t>
   </si>
 </sst>
 </file>
@@ -863,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM7"/>
+  <dimension ref="A1:BM9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,6 +1649,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
